--- a/in-progress/WangS_2020_IEEE/SUBMISSION/S1/S1_template.xlsx
+++ b/in-progress/WangS_2020_IEEE/SUBMISSION/S1/S1_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harrisondavis/Documents/GitHub/nmcuration/in-progress/WangS_2020_IEEE/SUBMISSION/S1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480D60BC-7DC4-AE4F-9B5B-F724702D5A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C81981-7946-9743-982C-773496E2FB7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="21360" windowHeight="17540" tabRatio="605" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1349" uniqueCount="618">
   <si>
     <t>COLOR LEGENDS</t>
   </si>
@@ -275,25 +275,13 @@
     <t>Filler description</t>
   </si>
   <si>
-    <t>Highly pure grades of commercial particles of Al(OH)3 with a quoted average size of 30 nm was added by weight ratio.</t>
-  </si>
-  <si>
     <t>Filler chemical name/Filler name</t>
   </si>
   <si>
-    <t>Aluminum Hydroxide Nanoparticles</t>
-  </si>
-  <si>
     <t>Filler PubChem reference</t>
   </si>
   <si>
-    <t>10176082  (?)</t>
-  </si>
-  <si>
     <t>Filler abbreviation</t>
-  </si>
-  <si>
-    <t>Nano-Al(OH)_3</t>
   </si>
   <si>
     <t>Manufacturer or source name</t>
@@ -393,15 +381,9 @@
     <t>Additive - description</t>
   </si>
   <si>
-    <t>Hexadecyltrimethoxysilane was used as a coupling agent for the surface modification of nano-Al(OH)3</t>
-  </si>
-  <si>
     <t>Additive - additive</t>
   </si>
   <si>
-    <t>Hexadecyltrimethoxysilane</t>
-  </si>
-  <si>
     <t>Additive - amount</t>
   </si>
   <si>
@@ -420,16 +402,10 @@
     <t>Solvent - solvent amount</t>
   </si>
   <si>
-    <t>Acetone</t>
-  </si>
-  <si>
     <t>Mixing #</t>
   </si>
   <si>
     <t>Mixing - description</t>
-  </si>
-  <si>
-    <t>Surface modification was performed by a solution mixing method. First, nano-Al(OH)3 was dispersed in acetone, and then the coupling agent having a mass ratio of 1.5% to the nanoparticles was added to the mixed solution.</t>
   </si>
   <si>
     <t>Mixing - mixer</t>
@@ -2633,7 +2609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="137">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2833,9 +2809,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2884,6 +2857,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3256,7 +3243,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -3264,33 +3251,33 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B4" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F4" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G4" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H4" s="76" t="s">
         <v>4</v>
@@ -3298,7 +3285,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -3309,7 +3296,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -3330,7 +3317,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -3341,7 +3328,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -3352,7 +3339,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -3363,7 +3350,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3374,7 +3361,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -3408,7 +3395,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -3416,15 +3403,15 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:10" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B4" s="101"/>
       <c r="C4" s="101"/>
@@ -3438,7 +3425,7 @@
     </row>
     <row r="5" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="91" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B5" s="83"/>
       <c r="C5" s="83"/>
@@ -3447,7 +3434,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="92" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B6" s="77"/>
       <c r="C6" s="101"/>
@@ -3463,13 +3450,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="69" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B8" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>53</v>
@@ -3480,7 +3467,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="81" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -3489,7 +3476,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="81" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -3498,7 +3485,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -3518,7 +3505,7 @@
         <v>51</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>4</v>
@@ -3527,7 +3514,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="84" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -3536,7 +3523,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="84" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -3545,7 +3532,7 @@
     </row>
     <row r="16" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="84" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -3555,7 +3542,7 @@
     </row>
     <row r="17" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="85" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B17" s="86"/>
       <c r="C17" s="86"/>
@@ -3565,7 +3552,7 @@
     <row r="18" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="93" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="B19" s="83"/>
       <c r="C19" s="83"/>
@@ -3577,7 +3564,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="92" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="101"/>
@@ -3599,13 +3586,13 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="90" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>53</v>
@@ -3619,7 +3606,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B23" s="75"/>
       <c r="C23" s="75"/>
@@ -3631,7 +3618,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -3643,7 +3630,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="81" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -3669,19 +3656,19 @@
         <v>51</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H27" s="79" t="s">
         <v>4</v>
@@ -3689,7 +3676,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="81" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -3701,7 +3688,7 @@
     </row>
     <row r="29" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A29" s="85" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="B29" s="86"/>
       <c r="C29" s="86"/>
@@ -3735,23 +3722,23 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:4" ht="114" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
-        <v>422</v>
-      </c>
-      <c r="B2" s="121"/>
+      <c r="A2" s="117" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="120"/>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="95" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C4" s="96" t="s">
         <v>4</v>
@@ -3760,7 +3747,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="80" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="B5" s="75"/>
       <c r="D5" s="78"/>
@@ -3774,14 +3761,14 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="80" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="B7" s="77"/>
       <c r="D7" s="78"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="B8" s="77"/>
       <c r="D8" s="78"/>
@@ -3792,10 +3779,10 @@
     </row>
     <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="41" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C10" s="76" t="s">
         <v>53</v>
@@ -3806,37 +3793,37 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="80" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="101" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D11" s="78"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="80" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="101" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="D12" s="78"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="80" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="101" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="D13" s="78"/>
     </row>
     <row r="14" spans="1:4" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="98" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="B14" s="86"/>
       <c r="C14" s="99"/>
@@ -3844,10 +3831,10 @@
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C16" s="76" t="s">
         <v>53</v>
@@ -3858,14 +3845,14 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="77"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="77"/>
@@ -3899,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="37" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="B1" s="37" t="s">
         <v>17</v>
@@ -3911,13 +3898,13 @@
         <v>48</v>
       </c>
       <c r="F1" s="37" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -3931,178 +3918,178 @@
         <v>21</v>
       </c>
       <c r="E3" s="101" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="F3" s="101" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="G3" s="101" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="H3" s="101" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="101" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B4" s="101" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C4" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="E4" s="101" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="F4" s="101" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="H4" s="101" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C5" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="E5" s="101" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="F5" s="101" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C6" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F6" s="101" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="H6" s="37" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F7" s="101" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F8" s="101" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="H8" s="101" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F9" s="101" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F10" s="101" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="H10" s="37" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="F11" s="101" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B12" t="s">
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D12" s="101" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F12" s="101" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="H12" s="101" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C13" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D13" s="101" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="H13" s="101" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
       </c>
       <c r="D14" s="101" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F14" s="101" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C15" t="s">
         <v>60</v>
@@ -4110,10 +4097,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C16" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="E16" s="37" t="s">
         <v>71</v>
@@ -4121,54 +4108,54 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="101" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C17" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="101" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C18" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="E18" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="101" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="E19" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="E21" s="37" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -4176,483 +4163,483 @@
         <v>62</v>
       </c>
       <c r="B22" s="101" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C22" t="s">
         <v>70</v>
       </c>
       <c r="D22" s="101" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="F22" s="101" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="101" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="B23" s="101" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="D23" s="101" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="E23" s="101" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="F23" s="101" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="101" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C24" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D24" s="101" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E24" s="101" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F24" s="101" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C25" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="D25" s="101" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="E25" s="101" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="F25" s="101" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="101" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="D26" s="101" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="E26" s="101" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="F26" s="101" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="D27" s="101" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="E27" s="101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F27" s="101" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="F28" s="101" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="E30" s="101" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="101" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="E31" s="101" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="37" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="B33" s="37" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E34" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="101" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="B35" s="101" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E35" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="B36" s="101" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="E36" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="101" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="B37" s="101" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="E37" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="101" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="B38" s="101" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B39" s="101" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="37" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="101" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="E42" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="101" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="37" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B45" s="37" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C45" s="37" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="D45" s="37" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="B47" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C47" s="101" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D47" s="101" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="B48" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C48" s="101" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="D48" s="101" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="B49" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C49" s="101" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="37" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="101" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="37" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="B61" s="37" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C61" s="37" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="D61" s="37" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="E61" s="37" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="F61" s="37" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="G61" s="37" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B63" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C63" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="D63" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="E63" s="101" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="F63" s="101" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="G63" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="B64" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C64" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="D64" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="E64" s="101" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F64" s="101" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="B65" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C65" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="D65" s="101" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="E65" s="101" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F65" s="101" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="B66" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="D66" s="101" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="E66" s="101" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="F66" s="101" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B67" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="D67" s="101" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="E67" s="101" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B68" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="E68" s="101" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B69" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="E69" s="101" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B70" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="37" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="B72" s="37" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
       <c r="B74" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="B75" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
       <c r="B76" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4683,45 +4670,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
+      <c r="A2" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="28" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -4729,19 +4716,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -4752,25 +4739,25 @@
     </row>
     <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="28" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="B10" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D10" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G10" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H10" s="76" t="s">
         <v>4</v>
@@ -4778,19 +4765,19 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B11" s="75"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -4801,30 +4788,30 @@
     </row>
     <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="28" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="B16" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C16" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D16" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F16" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G16" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H16" s="76" t="s">
         <v>4</v>
@@ -4832,19 +4819,19 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B18" s="75"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -4855,30 +4842,30 @@
     </row>
     <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="B22" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D22" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F22" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H22" s="76" t="s">
         <v>4</v>
@@ -4886,19 +4873,19 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B23" s="75"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -4909,25 +4896,25 @@
     </row>
     <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="28" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B27" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C27" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D27" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F27" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G27" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H27" s="76" t="s">
         <v>4</v>
@@ -4935,19 +4922,19 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B28" s="75"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -4958,25 +4945,25 @@
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="28" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B32" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C32" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D32" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F32" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G32" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H32" s="76" t="s">
         <v>4</v>
@@ -4984,19 +4971,19 @@
     </row>
     <row r="33" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B33" s="75"/>
     </row>
     <row r="34" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B34" s="75"/>
     </row>
     <row r="35" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -5007,30 +4994,30 @@
     </row>
     <row r="37" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="38" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="28" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B38" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C38" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D38" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F38" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G38" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H38" s="76" t="s">
         <v>4</v>
@@ -21414,19 +21401,19 @@
     </row>
     <row r="39" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B39" s="75"/>
     </row>
     <row r="40" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B40" s="75"/>
     </row>
     <row r="41" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
@@ -21438,25 +21425,25 @@
     <row r="42" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="43" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="28" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B43" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C43" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D43" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E43" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F43" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G43" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H43" s="76" t="s">
         <v>4</v>
@@ -37840,19 +37827,19 @@
     </row>
     <row r="44" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B44" s="75"/>
     </row>
     <row r="45" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B45" s="75"/>
     </row>
     <row r="46" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -37895,10 +37882,10 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="119"/>
+      <c r="B2" s="118"/>
       <c r="C2" s="37"/>
     </row>
     <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -37924,7 +37911,7 @@
       <c r="A5" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="111" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="66" t="s">
@@ -37938,7 +37925,7 @@
       <c r="A6" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="113" t="s">
+      <c r="B6" s="112" t="s">
         <v>12</v>
       </c>
     </row>
@@ -38181,8 +38168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I211"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" zoomScale="88" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView topLeftCell="A38" zoomScale="88" zoomScaleNormal="108" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -38207,11 +38194,11 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="73" t="s">
@@ -38410,48 +38397,40 @@
       <c r="A27" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="B27" s="106" t="s">
-        <v>80</v>
-      </c>
+      <c r="B27" s="106"/>
       <c r="C27" s="94"/>
     </row>
     <row r="28" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>81</v>
-      </c>
-      <c r="B28" s="103" t="s">
-        <v>82</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B28" s="103"/>
       <c r="C28" s="94"/>
     </row>
     <row r="29" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="104" t="s">
-        <v>84</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B29" s="104"/>
       <c r="C29" s="94"/>
     </row>
     <row r="30" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B30" s="103" t="s">
-        <v>86</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B30" s="103"/>
       <c r="C30" s="94"/>
     </row>
     <row r="31" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B31" s="72"/>
       <c r="C31" s="94"/>
     </row>
     <row r="32" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B32" s="72"/>
       <c r="C32" s="94"/>
@@ -38466,29 +38445,23 @@
     </row>
     <row r="34" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B34" s="72"/>
       <c r="C34" s="94"/>
     </row>
     <row r="35" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="106" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" s="107">
-        <v>30</v>
-      </c>
-      <c r="D35" s="108" t="s">
-        <v>91</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B35" s="106"/>
+      <c r="C35" s="107"/>
+      <c r="D35" s="108"/>
       <c r="E35" s="72"/>
     </row>
     <row r="36" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B36" s="72"/>
       <c r="C36" s="72"/>
@@ -38496,7 +38469,7 @@
     </row>
     <row r="37" spans="1:5" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B37" s="72"/>
       <c r="C37" s="72"/>
@@ -38504,14 +38477,14 @@
     </row>
     <row r="38" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B38" s="72"/>
       <c r="C38" s="72"/>
     </row>
     <row r="39" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B39" s="72"/>
       <c r="C39" s="72"/>
@@ -38519,7 +38492,7 @@
     </row>
     <row r="40" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B40" s="72"/>
       <c r="C40" s="72"/>
@@ -38527,7 +38500,7 @@
     </row>
     <row r="41" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" s="72"/>
       <c r="C41" s="72"/>
@@ -38535,37 +38508,37 @@
     </row>
     <row r="42" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B42" s="94"/>
       <c r="C42" s="72"/>
     </row>
     <row r="43" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B43" s="94"/>
       <c r="C43" s="72"/>
     </row>
     <row r="45" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B45" s="94"/>
       <c r="C45" s="94"/>
     </row>
     <row r="46" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C46" s="114"/>
+        <v>98</v>
+      </c>
+      <c r="C46" s="113"/>
     </row>
     <row r="48" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B48" s="76" t="s">
         <v>51</v>
@@ -38582,7 +38555,7 @@
     </row>
     <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="23" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B49" s="72"/>
       <c r="C49" s="94"/>
@@ -38591,7 +38564,7 @@
     </row>
     <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="23" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B50" s="72"/>
       <c r="C50" s="94"/>
@@ -38600,14 +38573,14 @@
     </row>
     <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B51" s="72"/>
       <c r="E51" s="101"/>
     </row>
     <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B52" s="72"/>
       <c r="C52" s="94"/>
@@ -38616,7 +38589,7 @@
     </row>
     <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="23" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B53" s="72"/>
       <c r="C53" s="94"/>
@@ -38625,7 +38598,7 @@
     </row>
     <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B54" s="72"/>
       <c r="C54" s="72"/>
@@ -38634,7 +38607,7 @@
     </row>
     <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B55" s="72"/>
       <c r="C55" s="72"/>
@@ -38643,7 +38616,7 @@
     </row>
     <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B56" s="72"/>
       <c r="C56" s="72"/>
@@ -38652,7 +38625,7 @@
     </row>
     <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B57" s="72"/>
       <c r="C57" s="72"/>
@@ -38660,116 +38633,92 @@
     </row>
     <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B58" s="72"/>
       <c r="C58" s="72"/>
     </row>
     <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="122" t="s">
-        <v>115</v>
-      </c>
-      <c r="G60" s="121"/>
-      <c r="H60" s="121"/>
-    </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-    </row>
-    <row r="62" spans="1:8" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="65" t="s">
-        <v>116</v>
-      </c>
-      <c r="B62" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60" s="121" t="s">
+        <v>111</v>
+      </c>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+    </row>
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="131"/>
+      <c r="B61" s="131"/>
+      <c r="C61" s="131"/>
+      <c r="D61" s="131"/>
+      <c r="F61" s="120"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="120"/>
+    </row>
+    <row r="62" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="132"/>
+      <c r="B62" s="133"/>
+      <c r="C62" s="133"/>
+      <c r="D62" s="133"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="120"/>
+      <c r="H62" s="120"/>
+    </row>
+    <row r="63" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="131"/>
+      <c r="B63" s="134"/>
+      <c r="C63" s="131"/>
+      <c r="D63" s="135"/>
+      <c r="F63" s="120"/>
+      <c r="G63" s="120"/>
+      <c r="H63" s="120"/>
+    </row>
+    <row r="64" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="131"/>
+      <c r="B64" s="131"/>
+      <c r="C64" s="131"/>
+      <c r="D64" s="135"/>
+      <c r="F64" s="122"/>
+      <c r="G64" s="122"/>
+      <c r="H64" s="122"/>
+    </row>
+    <row r="65" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="131"/>
+      <c r="B65" s="131"/>
+      <c r="C65" s="131"/>
+      <c r="D65" s="135"/>
+      <c r="F65" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="C62" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62" s="61" t="s">
-        <v>4</v>
-      </c>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="121"/>
-    </row>
-    <row r="63" spans="1:8" ht="38" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="80" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="109" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="78"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="121"/>
-    </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="80" t="s">
+      <c r="G65" s="115"/>
+      <c r="H65" s="115"/>
+      <c r="I65" s="116"/>
+    </row>
+    <row r="66" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="132"/>
+      <c r="B66" s="133"/>
+      <c r="C66" s="133"/>
+      <c r="D66" s="133"/>
+      <c r="F66" s="44" t="s">
         <v>120</v>
-      </c>
-      <c r="B64" s="75" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="78"/>
-      <c r="F64" s="123"/>
-      <c r="G64" s="123"/>
-      <c r="H64" s="123"/>
-    </row>
-    <row r="65" spans="1:9" ht="22" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="46"/>
-      <c r="C65" s="46"/>
-      <c r="D65" s="45"/>
-      <c r="F65" s="115" t="s">
-        <v>123</v>
-      </c>
-      <c r="G65" s="116"/>
-      <c r="H65" s="116"/>
-      <c r="I65" s="117"/>
-    </row>
-    <row r="66" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="41" t="s">
-        <v>124</v>
-      </c>
-      <c r="B66" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C66" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D66" s="79" t="s">
-        <v>53</v>
-      </c>
-      <c r="F66" s="44" t="s">
-        <v>126</v>
       </c>
       <c r="G66" s="83"/>
       <c r="H66" s="83"/>
       <c r="I66" s="82"/>
     </row>
-    <row r="67" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="B67" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="46"/>
-      <c r="D67" s="53"/>
+    <row r="67" spans="1:9" ht="18" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="131"/>
+      <c r="B67" s="131"/>
+      <c r="C67" s="131"/>
+      <c r="D67" s="131"/>
       <c r="F67" s="65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H67" s="60" t="s">
         <v>53</v>
@@ -38778,75 +38727,58 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="B68" s="60" t="s">
-        <v>117</v>
-      </c>
-      <c r="C68" s="60" t="s">
-        <v>53</v>
-      </c>
-      <c r="D68" s="61" t="s">
-        <v>4</v>
-      </c>
+    <row r="68" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="132"/>
+      <c r="B68" s="133"/>
+      <c r="C68" s="133"/>
+      <c r="D68" s="133"/>
       <c r="F68" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G68" s="75"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" ht="80" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="106" t="s">
-        <v>131</v>
-      </c>
-      <c r="D69" s="78"/>
+      <c r="A69" s="131"/>
+      <c r="B69" s="136"/>
+      <c r="C69" s="131"/>
+      <c r="D69" s="135"/>
       <c r="F69" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G69" s="75"/>
       <c r="I69" s="78"/>
     </row>
     <row r="70" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="80" t="s">
-        <v>132</v>
-      </c>
-      <c r="B70" s="75"/>
-      <c r="D70" s="78"/>
+      <c r="A70" s="131"/>
+      <c r="B70" s="131"/>
+      <c r="C70" s="131"/>
+      <c r="D70" s="135"/>
       <c r="F70" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G70" s="46"/>
       <c r="H70" s="46"/>
       <c r="I70" s="45"/>
     </row>
     <row r="71" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="80" t="s">
-        <v>133</v>
-      </c>
-      <c r="B71" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="D71" s="78"/>
+      <c r="A71" s="131"/>
+      <c r="B71" s="131"/>
+      <c r="C71" s="131"/>
+      <c r="D71" s="135"/>
       <c r="F71" s="80"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="80" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="75"/>
-      <c r="C72" s="75"/>
-      <c r="D72" s="78"/>
+      <c r="A72" s="131"/>
+      <c r="B72" s="131"/>
+      <c r="C72" s="131"/>
+      <c r="D72" s="135"/>
       <c r="F72" s="65" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G72" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H72" s="60" t="s">
         <v>53</v>
@@ -38856,75 +38788,67 @@
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A73" s="80" t="s">
-        <v>137</v>
-      </c>
-      <c r="B73" s="75"/>
-      <c r="C73" s="74"/>
-      <c r="D73" s="78"/>
+      <c r="A73" s="131"/>
+      <c r="B73" s="131"/>
+      <c r="C73" s="131"/>
+      <c r="D73" s="135"/>
       <c r="F73" s="80" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G73" s="75"/>
       <c r="I73" s="78"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="80" t="s">
-        <v>139</v>
-      </c>
-      <c r="B74" s="75"/>
-      <c r="C74" s="74"/>
-      <c r="D74" s="78"/>
+      <c r="A74" s="131"/>
+      <c r="B74" s="131"/>
+      <c r="C74" s="131"/>
+      <c r="D74" s="135"/>
       <c r="F74" s="80" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G74" s="75"/>
       <c r="H74" s="74"/>
       <c r="I74" s="78"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A75" s="81"/>
-      <c r="B75" s="76" t="s">
-        <v>125</v>
-      </c>
-      <c r="C75" s="76" t="s">
-        <v>52</v>
-      </c>
-      <c r="D75" s="79" t="s">
-        <v>53</v>
-      </c>
+      <c r="A75" s="135"/>
+      <c r="B75" s="133"/>
+      <c r="C75" s="133"/>
+      <c r="D75" s="133"/>
       <c r="F75" s="80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G75" s="75"/>
       <c r="H75" s="74"/>
       <c r="I75" s="78"/>
     </row>
-    <row r="76" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="B76" s="46"/>
-      <c r="C76" s="46"/>
-      <c r="D76" s="64"/>
+    <row r="76" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="131"/>
+      <c r="B76" s="131"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="131"/>
       <c r="F76" s="80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G76" s="75"/>
       <c r="H76" s="74"/>
       <c r="I76" s="78"/>
     </row>
-    <row r="77" spans="1:9" ht="16" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="131"/>
+      <c r="B77" s="131"/>
+      <c r="C77" s="131"/>
+      <c r="D77" s="131"/>
       <c r="F77" s="81"/>
       <c r="G77" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H77" s="101"/>
       <c r="I77" s="78"/>
     </row>
     <row r="78" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F78" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G78" s="49"/>
       <c r="H78" s="50"/>
@@ -38938,10 +38862,10 @@
     </row>
     <row r="80" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F80" s="41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G80" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H80" s="76" t="s">
         <v>52</v>
@@ -38952,7 +38876,7 @@
     </row>
     <row r="81" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F81" s="56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G81" s="46"/>
       <c r="H81" s="46"/>
@@ -38964,10 +38888,10 @@
     </row>
     <row r="83" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F83" s="65" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G83" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H83" s="60" t="s">
         <v>53</v>
@@ -38978,28 +38902,28 @@
     </row>
     <row r="84" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F84" s="80" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G84" s="75"/>
       <c r="I84" s="78"/>
     </row>
     <row r="85" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F85" s="80" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G85" s="75"/>
       <c r="I85" s="78"/>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F86" s="80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G86" s="77"/>
       <c r="I86" s="78"/>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F87" s="80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -39007,7 +38931,7 @@
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F88" s="80" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G88" s="75"/>
       <c r="H88" s="74"/>
@@ -39015,7 +38939,7 @@
     </row>
     <row r="89" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F89" s="80" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G89" s="75"/>
       <c r="H89" s="74"/>
@@ -39024,7 +38948,7 @@
     <row r="90" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F90" s="81"/>
       <c r="G90" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H90" s="76" t="s">
         <v>52</v>
@@ -39035,7 +38959,7 @@
     </row>
     <row r="91" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F91" s="56" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G91" s="46"/>
       <c r="H91" s="46"/>
@@ -39049,7 +38973,7 @@
     </row>
     <row r="93" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F93" s="65" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="G93" s="62"/>
       <c r="H93" s="62"/>
@@ -39061,10 +38985,10 @@
     </row>
     <row r="95" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F95" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G95" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H95" s="76" t="s">
         <v>53</v>
@@ -39079,14 +39003,14 @@
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F97" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G97" s="75"/>
       <c r="I97" s="78"/>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F98" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G98" s="75"/>
       <c r="H98" s="74"/>
@@ -39094,7 +39018,7 @@
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F99" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G99" s="75"/>
       <c r="H99" s="74"/>
@@ -39102,7 +39026,7 @@
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F100" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G100" s="75"/>
       <c r="H100" s="77"/>
@@ -39110,7 +39034,7 @@
     </row>
     <row r="101" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F101" s="80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G101" s="75"/>
       <c r="H101" s="77"/>
@@ -39118,7 +39042,7 @@
     </row>
     <row r="102" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F102" s="80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G102" s="75"/>
       <c r="H102" s="77"/>
@@ -39126,14 +39050,14 @@
     </row>
     <row r="103" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F103" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G103" s="75"/>
       <c r="I103" s="78"/>
     </row>
     <row r="104" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F104" s="80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G104" s="75"/>
       <c r="H104" s="75"/>
@@ -39141,7 +39065,7 @@
     </row>
     <row r="105" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F105" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G105" s="75"/>
       <c r="H105" s="77"/>
@@ -39149,7 +39073,7 @@
     </row>
     <row r="106" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F106" s="80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G106" s="75"/>
       <c r="H106" s="77"/>
@@ -39157,7 +39081,7 @@
     </row>
     <row r="107" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F107" s="80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G107" s="75"/>
       <c r="H107" s="75"/>
@@ -39165,14 +39089,14 @@
     </row>
     <row r="108" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F108" s="80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G108" s="75"/>
       <c r="I108" s="78"/>
     </row>
     <row r="109" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F109" s="80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G109" s="75"/>
       <c r="H109" s="77"/>
@@ -39180,21 +39104,21 @@
     </row>
     <row r="110" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F110" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G110" s="38"/>
       <c r="I110" s="78"/>
     </row>
     <row r="111" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F111" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G111" s="75"/>
       <c r="I111" s="78"/>
     </row>
     <row r="112" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F112" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G112" s="75"/>
       <c r="H112" s="77"/>
@@ -39202,7 +39126,7 @@
     </row>
     <row r="113" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F113" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G113" s="75"/>
       <c r="H113" s="74"/>
@@ -39210,7 +39134,7 @@
     </row>
     <row r="114" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F114" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G114" s="75"/>
       <c r="H114" s="77"/>
@@ -39218,7 +39142,7 @@
     </row>
     <row r="115" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F115" s="80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G115" s="75"/>
       <c r="H115" s="75"/>
@@ -39226,7 +39150,7 @@
     </row>
     <row r="116" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F116" s="80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G116" s="75"/>
       <c r="H116" s="74"/>
@@ -39234,14 +39158,14 @@
     </row>
     <row r="117" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F117" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G117" s="38"/>
       <c r="I117" s="78"/>
     </row>
     <row r="118" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F118" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G118" s="75"/>
       <c r="H118" s="74"/>
@@ -39249,7 +39173,7 @@
     </row>
     <row r="119" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F119" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G119" s="75"/>
       <c r="H119" s="74"/>
@@ -39257,7 +39181,7 @@
     </row>
     <row r="120" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F120" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G120" s="75"/>
       <c r="H120" s="75"/>
@@ -39265,7 +39189,7 @@
     </row>
     <row r="121" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F121" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G121" s="75"/>
       <c r="H121" s="75"/>
@@ -39273,7 +39197,7 @@
     </row>
     <row r="122" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F122" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G122" s="75"/>
       <c r="H122" s="75"/>
@@ -39281,7 +39205,7 @@
     </row>
     <row r="123" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F123" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G123" s="75"/>
       <c r="H123" s="75"/>
@@ -39289,7 +39213,7 @@
     </row>
     <row r="124" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F124" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G124" s="75"/>
       <c r="H124" s="75"/>
@@ -39297,7 +39221,7 @@
     </row>
     <row r="125" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F125" s="80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G125" s="75"/>
       <c r="H125" s="74"/>
@@ -39309,10 +39233,10 @@
     </row>
     <row r="127" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F127" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G127" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H127" s="76" t="s">
         <v>53</v>
@@ -39327,14 +39251,14 @@
     </row>
     <row r="129" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F129" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G129" s="75"/>
       <c r="I129" s="78"/>
     </row>
     <row r="130" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F130" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G130" s="75"/>
       <c r="H130" s="74"/>
@@ -39342,7 +39266,7 @@
     </row>
     <row r="131" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F131" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G131" s="75"/>
       <c r="H131" s="74"/>
@@ -39350,14 +39274,14 @@
     </row>
     <row r="132" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F132" s="80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G132" s="74"/>
       <c r="I132" s="78"/>
     </row>
     <row r="133" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F133" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G133" s="75"/>
       <c r="H133" s="77"/>
@@ -39365,7 +39289,7 @@
     </row>
     <row r="134" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F134" s="80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G134" s="75"/>
       <c r="H134" s="77"/>
@@ -39373,14 +39297,14 @@
     </row>
     <row r="135" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F135" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G135" s="75"/>
       <c r="I135" s="78"/>
     </row>
     <row r="136" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F136" s="80" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G136" s="75"/>
       <c r="H136" s="75"/>
@@ -39388,7 +39312,7 @@
     </row>
     <row r="137" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F137" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G137" s="75"/>
       <c r="H137" s="77"/>
@@ -39396,21 +39320,21 @@
     </row>
     <row r="138" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F138" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G138" s="38"/>
       <c r="I138" s="78"/>
     </row>
     <row r="139" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F139" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G139" s="75"/>
       <c r="I139" s="78"/>
     </row>
     <row r="140" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F140" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G140" s="75"/>
       <c r="H140" s="77"/>
@@ -39418,7 +39342,7 @@
     </row>
     <row r="141" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F141" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G141" s="75"/>
       <c r="H141" s="74"/>
@@ -39426,7 +39350,7 @@
     </row>
     <row r="142" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F142" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G142" s="75"/>
       <c r="H142" s="77"/>
@@ -39434,21 +39358,21 @@
     </row>
     <row r="143" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F143" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G143" s="75"/>
       <c r="I143" s="78"/>
     </row>
     <row r="144" spans="6:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F144" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G144" s="38"/>
       <c r="I144" s="78"/>
     </row>
     <row r="145" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F145" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G145" s="75"/>
       <c r="H145" s="74"/>
@@ -39456,7 +39380,7 @@
     </row>
     <row r="146" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F146" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G146" s="75"/>
       <c r="H146" s="74"/>
@@ -39464,7 +39388,7 @@
     </row>
     <row r="147" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F147" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G147" s="75"/>
       <c r="H147" s="75"/>
@@ -39472,7 +39396,7 @@
     </row>
     <row r="148" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F148" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G148" s="75"/>
       <c r="H148" s="75"/>
@@ -39480,7 +39404,7 @@
     </row>
     <row r="149" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F149" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G149" s="75"/>
       <c r="H149" s="75"/>
@@ -39488,7 +39412,7 @@
     </row>
     <row r="150" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F150" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G150" s="75"/>
       <c r="H150" s="75"/>
@@ -39496,7 +39420,7 @@
     </row>
     <row r="151" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F151" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G151" s="75"/>
       <c r="H151" s="75"/>
@@ -39504,7 +39428,7 @@
     </row>
     <row r="152" spans="6:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F152" s="56" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G152" s="46"/>
       <c r="H152" s="57"/>
@@ -39516,10 +39440,10 @@
     </row>
     <row r="154" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F154" s="65" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G154" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H154" s="60" t="s">
         <v>53</v>
@@ -39530,14 +39454,14 @@
     </row>
     <row r="155" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F155" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G155" s="75"/>
       <c r="I155" s="78"/>
     </row>
     <row r="156" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F156" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G156" s="75"/>
       <c r="H156" s="74"/>
@@ -39545,7 +39469,7 @@
     </row>
     <row r="157" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F157" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G157" s="75"/>
       <c r="H157" s="74"/>
@@ -39553,7 +39477,7 @@
     </row>
     <row r="158" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F158" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G158" s="75"/>
       <c r="H158" s="74"/>
@@ -39562,14 +39486,14 @@
     <row r="159" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F159" s="81"/>
       <c r="G159" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H159" s="101"/>
       <c r="I159" s="78"/>
     </row>
     <row r="160" spans="6:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F160" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G160" s="49"/>
       <c r="H160" s="50"/>
@@ -39583,10 +39507,10 @@
     </row>
     <row r="162" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F162" s="65" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G162" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H162" s="60" t="s">
         <v>53</v>
@@ -39597,14 +39521,14 @@
     </row>
     <row r="163" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F163" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G163" s="75"/>
       <c r="I163" s="78"/>
     </row>
     <row r="164" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F164" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G164" s="75"/>
       <c r="H164" s="74"/>
@@ -39612,7 +39536,7 @@
     </row>
     <row r="165" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F165" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G165" s="75"/>
       <c r="H165" s="74"/>
@@ -39620,7 +39544,7 @@
     </row>
     <row r="166" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F166" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G166" s="75"/>
       <c r="H166" s="74"/>
@@ -39629,14 +39553,14 @@
     <row r="167" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F167" s="81"/>
       <c r="G167" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H167" s="101"/>
       <c r="I167" s="78"/>
     </row>
     <row r="168" spans="6:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F168" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G168" s="49"/>
       <c r="H168" s="50"/>
@@ -39649,7 +39573,7 @@
     </row>
     <row r="170" spans="6:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F170" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G170" s="59"/>
       <c r="H170" s="55"/>
@@ -39661,10 +39585,10 @@
     </row>
     <row r="172" spans="6:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F172" s="65" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G172" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H172" s="60" t="s">
         <v>53</v>
@@ -39675,14 +39599,14 @@
     </row>
     <row r="173" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F173" s="80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G173" s="75"/>
       <c r="I173" s="78"/>
     </row>
     <row r="174" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F174" s="81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G174" s="77"/>
       <c r="H174" s="101"/>
@@ -39690,7 +39614,7 @@
     </row>
     <row r="175" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F175" s="80" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G175" s="75"/>
       <c r="H175" s="74"/>
@@ -39698,7 +39622,7 @@
     </row>
     <row r="176" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F176" s="80" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G176" s="75"/>
       <c r="H176" s="74"/>
@@ -39706,7 +39630,7 @@
     </row>
     <row r="177" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F177" s="80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G177" s="75"/>
       <c r="H177" s="74"/>
@@ -39715,14 +39639,14 @@
     <row r="178" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F178" s="81"/>
       <c r="G178" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H178" s="101"/>
       <c r="I178" s="78"/>
     </row>
     <row r="179" spans="5:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F179" s="48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G179" s="49"/>
       <c r="H179" s="50"/>
@@ -39736,10 +39660,10 @@
     </row>
     <row r="181" spans="5:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F181" s="65" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G181" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H181" s="60" t="s">
         <v>53</v>
@@ -39750,14 +39674,14 @@
     </row>
     <row r="182" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F182" s="80" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G182" s="75"/>
       <c r="I182" s="78"/>
     </row>
     <row r="183" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F183" s="80" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G183" s="75"/>
       <c r="H183" s="74"/>
@@ -39765,7 +39689,7 @@
     </row>
     <row r="184" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F184" s="80" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G184" s="75"/>
       <c r="H184" s="74"/>
@@ -39773,7 +39697,7 @@
     </row>
     <row r="185" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F185" s="80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G185" s="75"/>
       <c r="H185" s="74"/>
@@ -39782,14 +39706,14 @@
     <row r="186" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F186" s="81"/>
       <c r="G186" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H186" s="101"/>
       <c r="I186" s="78"/>
     </row>
     <row r="187" spans="5:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F187" s="48" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G187" s="49"/>
       <c r="H187" s="50"/>
@@ -39803,7 +39727,7 @@
     </row>
     <row r="189" spans="5:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F189" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G189" s="60" t="s">
         <v>51</v>
@@ -39817,7 +39741,7 @@
     </row>
     <row r="190" spans="5:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="F190" s="85" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G190" s="86"/>
       <c r="H190" s="87"/>
@@ -39983,7 +39907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -40001,24 +39925,24 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
-      <c r="F1" s="128" t="s">
-        <v>123</v>
-      </c>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="130"/>
+      <c r="F1" s="127" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="129"/>
     </row>
     <row r="2" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="126" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
       <c r="F2" s="81"/>
       <c r="G2" s="101"/>
       <c r="H2" s="101"/>
@@ -40026,22 +39950,22 @@
     </row>
     <row r="3" spans="1:9" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B3" s="106" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C3" s="23"/>
-      <c r="F3" s="124" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" s="121"/>
+      <c r="F3" s="123" t="s">
+        <v>205</v>
+      </c>
+      <c r="G3" s="120"/>
       <c r="H3" s="101"/>
       <c r="I3" s="78"/>
     </row>
     <row r="4" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F4" s="36" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="G4" s="74"/>
       <c r="H4" s="101"/>
@@ -40049,25 +39973,25 @@
     </row>
     <row r="5" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="B5" s="74" t="s">
-        <v>216</v>
-      </c>
-      <c r="F5" s="125" t="s">
-        <v>217</v>
-      </c>
-      <c r="G5" s="126"/>
+        <v>208</v>
+      </c>
+      <c r="F5" s="124" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="125"/>
       <c r="H5" s="50"/>
       <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="F6" s="41" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G6" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H6" s="76" t="s">
         <v>53</v>
@@ -40078,10 +40002,10 @@
     </row>
     <row r="7" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A7" s="65" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B7" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C7" s="60" t="s">
         <v>53</v>
@@ -40090,35 +40014,35 @@
         <v>4</v>
       </c>
       <c r="F7" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G7" s="75"/>
       <c r="I7" s="78"/>
     </row>
     <row r="8" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="80" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B8" s="105" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D8" s="78"/>
       <c r="F8" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G8" s="75"/>
       <c r="I8" s="78"/>
     </row>
     <row r="9" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B9" s="75" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="D9" s="78"/>
       <c r="F9" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G9" s="46"/>
       <c r="H9" s="46"/>
@@ -40126,7 +40050,7 @@
     </row>
     <row r="10" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="56" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B10" s="46"/>
       <c r="C10" s="46"/>
@@ -40138,18 +40062,18 @@
     </row>
     <row r="11" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C11" s="55"/>
       <c r="D11" s="47"/>
       <c r="F11" s="41" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>53</v>
@@ -40160,10 +40084,10 @@
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A12" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C12" s="76" t="s">
         <v>53</v>
@@ -40172,21 +40096,21 @@
         <v>4</v>
       </c>
       <c r="F12" s="80" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="G12" s="75"/>
       <c r="I12" s="78"/>
     </row>
     <row r="13" spans="1:9" ht="144" x14ac:dyDescent="0.2">
       <c r="A13" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B13" s="105" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D13" s="78"/>
       <c r="F13" s="80" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G13" s="75"/>
       <c r="H13" s="74"/>
@@ -40194,17 +40118,17 @@
     </row>
     <row r="14" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B14" s="75">
         <v>120</v>
       </c>
       <c r="C14" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D14" s="78"/>
       <c r="F14" s="80" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="G14" s="75"/>
       <c r="H14" s="74"/>
@@ -40212,17 +40136,17 @@
     </row>
     <row r="15" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B15" s="75">
         <v>24</v>
       </c>
       <c r="C15" s="74" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D15" s="78"/>
       <c r="F15" s="80" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="G15" s="75"/>
       <c r="H15" s="74"/>
@@ -40230,14 +40154,14 @@
     </row>
     <row r="16" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="74"/>
       <c r="D16" s="78"/>
       <c r="F16" s="81"/>
       <c r="G16" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H16" s="101"/>
       <c r="I16" s="78"/>
@@ -40245,12 +40169,12 @@
     <row r="17" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="81"/>
       <c r="B17" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C17" s="101"/>
       <c r="D17" s="78"/>
       <c r="F17" s="48" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="G17" s="49"/>
       <c r="H17" s="50"/>
@@ -40258,7 +40182,7 @@
     </row>
     <row r="18" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A18" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B18" s="49"/>
       <c r="C18" s="50"/>
@@ -40270,10 +40194,10 @@
     </row>
     <row r="19" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A19" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C19" s="76" t="s">
         <v>53</v>
@@ -40282,10 +40206,10 @@
         <v>4</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G19" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H19" s="76" t="s">
         <v>52</v>
@@ -40296,14 +40220,14 @@
     </row>
     <row r="20" spans="1:9" ht="68" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B20" s="105" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="D20" s="78"/>
       <c r="F20" s="56" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="46"/>
@@ -40311,13 +40235,13 @@
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B21" s="75">
         <v>140</v>
       </c>
       <c r="C21" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D21" s="78"/>
       <c r="F21" s="52"/>
@@ -40327,20 +40251,20 @@
     </row>
     <row r="22" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A22" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B22" s="75">
         <v>20</v>
       </c>
       <c r="C22" s="74" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D22" s="78"/>
       <c r="F22" s="41" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G22" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H22" s="76" t="s">
         <v>53</v>
@@ -40351,17 +40275,17 @@
     </row>
     <row r="23" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B23" s="75">
         <v>10</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="D23" s="78"/>
       <c r="F23" s="80" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G23" s="75"/>
       <c r="I23" s="78"/>
@@ -40369,35 +40293,35 @@
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="81"/>
       <c r="B24" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C24" s="101"/>
       <c r="D24" s="78"/>
       <c r="F24" s="80" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="G24" s="75"/>
       <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="45"/>
       <c r="F25" s="80" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="G25" s="77"/>
       <c r="I25" s="78"/>
     </row>
     <row r="26" spans="1:9" ht="19" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A26" s="41" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C26" s="76" t="s">
         <v>53</v>
@@ -40406,7 +40330,7 @@
         <v>4</v>
       </c>
       <c r="F26" s="80" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="G26" s="75"/>
       <c r="H26" s="75"/>
@@ -40414,14 +40338,14 @@
     </row>
     <row r="27" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A27" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B27" s="105" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="D27" s="78"/>
       <c r="F27" s="80" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="G27" s="75"/>
       <c r="H27" s="74"/>
@@ -40429,17 +40353,17 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B28" s="75">
         <v>70</v>
       </c>
       <c r="C28" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D28" s="78"/>
       <c r="F28" s="80" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="G28" s="75"/>
       <c r="H28" s="74"/>
@@ -40447,19 +40371,19 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B29" s="75">
         <v>24</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="D29" s="78"/>
       <c r="E29" s="101"/>
       <c r="F29" s="81"/>
       <c r="G29" s="76" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H29" s="76" t="s">
         <v>52</v>
@@ -40470,14 +40394,14 @@
     </row>
     <row r="30" spans="1:9" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="74"/>
       <c r="D30" s="78"/>
       <c r="E30" s="101"/>
       <c r="F30" s="56" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="G30" s="46"/>
       <c r="H30" s="46"/>
@@ -40486,7 +40410,7 @@
     <row r="31" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="81"/>
       <c r="B31" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C31" s="101"/>
       <c r="D31" s="78"/>
@@ -40497,22 +40421,22 @@
     </row>
     <row r="32" spans="1:9" ht="17" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="45"/>
       <c r="F32" s="41" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="I32" s="78"/>
     </row>
     <row r="33" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A33" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B33" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C33" s="76" t="s">
         <v>53</v>
@@ -40525,17 +40449,17 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B34" s="75" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D34" s="78"/>
       <c r="F34" s="40" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>53</v>
@@ -40546,13 +40470,13 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="80" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="111">
+        <v>175</v>
+      </c>
+      <c r="B35" s="110">
         <v>20</v>
       </c>
       <c r="C35" s="74" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D35" s="78"/>
       <c r="F35" s="40"/>
@@ -40560,26 +40484,26 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="74"/>
       <c r="D36" s="78"/>
       <c r="F36" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G36" s="75"/>
       <c r="I36" s="78"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="74"/>
       <c r="D37" s="78"/>
       <c r="F37" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G37" s="75"/>
       <c r="H37" s="74"/>
@@ -40588,12 +40512,12 @@
     <row r="38" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="81"/>
       <c r="B38" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C38" s="101"/>
       <c r="D38" s="78"/>
       <c r="F38" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G38" s="75"/>
       <c r="H38" s="74"/>
@@ -40601,13 +40525,13 @@
     </row>
     <row r="39" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="45"/>
       <c r="F39" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G39" s="75"/>
       <c r="H39" s="77"/>
@@ -40615,7 +40539,7 @@
     </row>
     <row r="40" spans="1:9" ht="48" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="F40" s="80" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="G40" s="75"/>
       <c r="H40" s="77"/>
@@ -40623,7 +40547,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F41" s="80" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="G41" s="75"/>
       <c r="H41" s="77"/>
@@ -40631,14 +40555,14 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F42" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G42" s="75"/>
       <c r="I42" s="78"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F43" s="80" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="G43" s="75"/>
       <c r="H43" s="75"/>
@@ -40646,7 +40570,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F44" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G44" s="75"/>
       <c r="H44" s="77"/>
@@ -40654,7 +40578,7 @@
     </row>
     <row r="45" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F45" s="80" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="G45" s="75"/>
       <c r="H45" s="77"/>
@@ -40662,7 +40586,7 @@
     </row>
     <row r="46" spans="1:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F46" s="80" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="G46" s="75"/>
       <c r="H46" s="75"/>
@@ -40670,14 +40594,14 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F47" s="80" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="G47" s="75"/>
       <c r="I47" s="78"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F48" s="80" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G48" s="75"/>
       <c r="H48" s="77"/>
@@ -40685,21 +40609,21 @@
     </row>
     <row r="49" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F49" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G49" s="38"/>
       <c r="I49" s="78"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F50" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G50" s="75"/>
       <c r="I50" s="78"/>
     </row>
     <row r="51" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F51" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G51" s="75"/>
       <c r="H51" s="77"/>
@@ -40707,7 +40631,7 @@
     </row>
     <row r="52" spans="4:9" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F52" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G52" s="75"/>
       <c r="H52" s="74"/>
@@ -40716,7 +40640,7 @@
     <row r="53" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D53" s="101"/>
       <c r="F53" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G53" s="75"/>
       <c r="H53" s="77"/>
@@ -40724,7 +40648,7 @@
     </row>
     <row r="54" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F54" s="80" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G54" s="75"/>
       <c r="H54" s="75"/>
@@ -40732,7 +40656,7 @@
     </row>
     <row r="55" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F55" s="80" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G55" s="75"/>
       <c r="H55" s="74"/>
@@ -40740,14 +40664,14 @@
     </row>
     <row r="56" spans="4:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F56" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G56" s="38"/>
       <c r="I56" s="78"/>
     </row>
     <row r="57" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F57" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G57" s="75"/>
       <c r="H57" s="74"/>
@@ -40755,7 +40679,7 @@
     </row>
     <row r="58" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F58" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G58" s="75"/>
       <c r="H58" s="74"/>
@@ -40763,7 +40687,7 @@
     </row>
     <row r="59" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F59" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G59" s="75"/>
       <c r="H59" s="75"/>
@@ -40771,7 +40695,7 @@
     </row>
     <row r="60" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F60" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G60" s="75"/>
       <c r="H60" s="75"/>
@@ -40779,7 +40703,7 @@
     </row>
     <row r="61" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F61" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G61" s="75"/>
       <c r="H61" s="75"/>
@@ -40787,7 +40711,7 @@
     </row>
     <row r="62" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F62" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G62" s="75"/>
       <c r="H62" s="75"/>
@@ -40795,7 +40719,7 @@
     </row>
     <row r="63" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F63" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G63" s="75"/>
       <c r="H63" s="75"/>
@@ -40803,7 +40727,7 @@
     </row>
     <row r="64" spans="4:9" x14ac:dyDescent="0.2">
       <c r="F64" s="80" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G64" s="75"/>
       <c r="H64" s="74"/>
@@ -40815,10 +40739,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F66" s="40" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G66" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H66" s="76" t="s">
         <v>53</v>
@@ -40833,14 +40757,14 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F68" s="80" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G68" s="75"/>
       <c r="I68" s="78"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F69" s="80" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="G69" s="75"/>
       <c r="H69" s="74"/>
@@ -40848,7 +40772,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F70" s="80" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="G70" s="75"/>
       <c r="H70" s="74"/>
@@ -40856,14 +40780,14 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F71" s="80" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G71" s="74"/>
       <c r="I71" s="78"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F72" s="80" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="G72" s="75"/>
       <c r="H72" s="77"/>
@@ -40871,7 +40795,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F73" s="80" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="G73" s="75"/>
       <c r="H73" s="77"/>
@@ -40879,7 +40803,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="F74" s="80" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="G74" s="75"/>
       <c r="I74" s="78"/>
@@ -40887,7 +40811,7 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D75" s="101"/>
       <c r="F75" s="80" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="G75" s="75"/>
       <c r="H75" s="75"/>
@@ -40897,7 +40821,7 @@
       <c r="D76" s="101"/>
       <c r="E76" s="14"/>
       <c r="F76" s="80" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="G76" s="75"/>
       <c r="H76" s="77"/>
@@ -40907,7 +40831,7 @@
       <c r="D77" s="101"/>
       <c r="E77" s="14"/>
       <c r="F77" s="41" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G77" s="38"/>
       <c r="I77" s="78"/>
@@ -40915,7 +40839,7 @@
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D78" s="101"/>
       <c r="F78" s="80" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G78" s="75"/>
       <c r="I78" s="78"/>
@@ -40924,7 +40848,7 @@
       <c r="A79" s="27"/>
       <c r="D79" s="101"/>
       <c r="F79" s="80" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G79" s="75"/>
       <c r="H79" s="77"/>
@@ -40933,7 +40857,7 @@
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D80" s="101"/>
       <c r="F80" s="80" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G80" s="75"/>
       <c r="H80" s="74"/>
@@ -40942,7 +40866,7 @@
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D81" s="101"/>
       <c r="F81" s="80" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G81" s="75"/>
       <c r="H81" s="77"/>
@@ -40951,7 +40875,7 @@
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D82" s="101"/>
       <c r="F82" s="42" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G82" s="75"/>
       <c r="I82" s="78"/>
@@ -40959,7 +40883,7 @@
     <row r="83" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D83" s="101"/>
       <c r="F83" s="41" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G83" s="38"/>
       <c r="I83" s="78"/>
@@ -40967,7 +40891,7 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D84" s="101"/>
       <c r="F84" s="80" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G84" s="75"/>
       <c r="H84" s="74"/>
@@ -40976,7 +40900,7 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D85" s="101"/>
       <c r="F85" s="80" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G85" s="75"/>
       <c r="H85" s="74"/>
@@ -40986,7 +40910,7 @@
       <c r="A86" s="27"/>
       <c r="D86" s="101"/>
       <c r="F86" s="80" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G86" s="75"/>
       <c r="H86" s="75"/>
@@ -40995,7 +40919,7 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D87" s="101"/>
       <c r="F87" s="80" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G87" s="75"/>
       <c r="H87" s="75"/>
@@ -41004,7 +40928,7 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D88" s="101"/>
       <c r="F88" s="80" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="G88" s="75"/>
       <c r="H88" s="75"/>
@@ -41013,7 +40937,7 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D89" s="101"/>
       <c r="F89" s="80" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G89" s="75"/>
       <c r="H89" s="75"/>
@@ -41022,7 +40946,7 @@
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D90" s="101"/>
       <c r="F90" s="80" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="G90" s="75"/>
       <c r="H90" s="75"/>
@@ -41032,7 +40956,7 @@
       <c r="D91" s="101"/>
       <c r="E91" s="27"/>
       <c r="F91" s="56" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G91" s="46"/>
       <c r="H91" s="57"/>
@@ -41048,10 +40972,10 @@
     <row r="93" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D93" s="101"/>
       <c r="F93" s="41" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G93" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H93" s="76" t="s">
         <v>53</v>
@@ -41063,7 +40987,7 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D94" s="101"/>
       <c r="F94" s="80" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="G94" s="75"/>
       <c r="I94" s="78"/>
@@ -41071,7 +40995,7 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D95" s="101"/>
       <c r="F95" s="80" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="G95" s="75"/>
       <c r="H95" s="74"/>
@@ -41081,7 +41005,7 @@
       <c r="A96" s="27"/>
       <c r="D96" s="37"/>
       <c r="F96" s="80" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="G96" s="75"/>
       <c r="H96" s="74"/>
@@ -41090,7 +41014,7 @@
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D97" s="101"/>
       <c r="F97" s="80" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G97" s="75"/>
       <c r="H97" s="74"/>
@@ -41101,7 +41025,7 @@
       <c r="E98" s="27"/>
       <c r="F98" s="81"/>
       <c r="G98" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H98" s="101"/>
       <c r="I98" s="78"/>
@@ -41109,7 +41033,7 @@
     <row r="99" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D99" s="101"/>
       <c r="F99" s="48" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="G99" s="49"/>
       <c r="H99" s="50"/>
@@ -41125,10 +41049,10 @@
     <row r="101" spans="1:9" ht="17" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="D101" s="101"/>
       <c r="F101" s="41" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G101" s="76" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H101" s="76" t="s">
         <v>53</v>
@@ -41141,7 +41065,7 @@
       <c r="A102" s="27"/>
       <c r="D102" s="37"/>
       <c r="F102" s="80" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="G102" s="75"/>
       <c r="I102" s="78"/>
@@ -41149,7 +41073,7 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D103" s="101"/>
       <c r="F103" s="80" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G103" s="75"/>
       <c r="H103" s="74"/>
@@ -41158,7 +41082,7 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D104" s="101"/>
       <c r="F104" s="80" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="G104" s="75"/>
       <c r="H104" s="74"/>
@@ -41167,7 +41091,7 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="D105" s="101"/>
       <c r="F105" s="80" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="G105" s="75"/>
       <c r="H105" s="74"/>
@@ -41177,7 +41101,7 @@
       <c r="D106" s="101"/>
       <c r="F106" s="81"/>
       <c r="G106" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H106" s="101"/>
       <c r="I106" s="78"/>
@@ -41185,7 +41109,7 @@
     <row r="107" spans="1:9" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D107" s="101"/>
       <c r="F107" s="48" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G107" s="49"/>
       <c r="H107" s="50"/>
@@ -41202,7 +41126,7 @@
     <row r="109" spans="1:9" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D109" s="101"/>
       <c r="F109" s="52" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G109" s="59"/>
       <c r="H109" s="55"/>
@@ -41218,10 +41142,10 @@
       <c r="A111" s="27"/>
       <c r="D111" s="101"/>
       <c r="F111" s="65" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G111" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H111" s="60" t="s">
         <v>53</v>
@@ -41234,7 +41158,7 @@
       <c r="A112" s="27"/>
       <c r="D112" s="101"/>
       <c r="F112" s="80" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="G112" s="75"/>
       <c r="I112" s="78"/>
@@ -41243,7 +41167,7 @@
       <c r="A113" s="101"/>
       <c r="D113" s="101"/>
       <c r="F113" s="81" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G113" s="77"/>
       <c r="H113" s="101"/>
@@ -41253,7 +41177,7 @@
       <c r="A114" s="101"/>
       <c r="D114" s="101"/>
       <c r="F114" s="80" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="G114" s="75"/>
       <c r="H114" s="74"/>
@@ -41263,7 +41187,7 @@
       <c r="A115" s="101"/>
       <c r="D115" s="101"/>
       <c r="F115" s="80" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G115" s="75"/>
       <c r="H115" s="74"/>
@@ -41273,7 +41197,7 @@
       <c r="A116" s="101"/>
       <c r="D116" s="101"/>
       <c r="F116" s="80" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="G116" s="75"/>
       <c r="H116" s="74"/>
@@ -41284,7 +41208,7 @@
       <c r="D117" s="101"/>
       <c r="F117" s="81"/>
       <c r="G117" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H117" s="101"/>
       <c r="I117" s="78"/>
@@ -41293,7 +41217,7 @@
       <c r="A118" s="101"/>
       <c r="D118" s="101"/>
       <c r="F118" s="48" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G118" s="49"/>
       <c r="H118" s="50"/>
@@ -41311,10 +41235,10 @@
       <c r="A120" s="101"/>
       <c r="D120" s="101"/>
       <c r="F120" s="65" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="G120" s="60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H120" s="60" t="s">
         <v>53</v>
@@ -41327,7 +41251,7 @@
       <c r="A121" s="27"/>
       <c r="D121" s="101"/>
       <c r="F121" s="80" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G121" s="75"/>
       <c r="I121" s="78"/>
@@ -41337,7 +41261,7 @@
       <c r="D122" s="101"/>
       <c r="E122" s="101"/>
       <c r="F122" s="80" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G122" s="75"/>
       <c r="H122" s="74"/>
@@ -41348,7 +41272,7 @@
       <c r="D123" s="101"/>
       <c r="E123" s="101"/>
       <c r="F123" s="80" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G123" s="75"/>
       <c r="H123" s="74"/>
@@ -41358,7 +41282,7 @@
       <c r="D124" s="101"/>
       <c r="E124" s="101"/>
       <c r="F124" s="80" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G124" s="75"/>
       <c r="H124" s="74"/>
@@ -41369,7 +41293,7 @@
       <c r="E125" s="101"/>
       <c r="F125" s="81"/>
       <c r="G125" s="76" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="H125" s="101"/>
       <c r="I125" s="78"/>
@@ -41378,7 +41302,7 @@
       <c r="D126" s="101"/>
       <c r="E126" s="101"/>
       <c r="F126" s="48" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G126" s="49"/>
       <c r="H126" s="50"/>
@@ -41396,7 +41320,7 @@
       <c r="D128" s="101"/>
       <c r="E128" s="101"/>
       <c r="F128" s="65" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G128" s="60" t="s">
         <v>51</v>
@@ -41412,7 +41336,7 @@
       <c r="D129" s="101"/>
       <c r="E129" s="101"/>
       <c r="F129" s="85" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G129" s="86"/>
       <c r="H129" s="87"/>
@@ -41503,45 +41427,45 @@
   <sheetData>
     <row r="1" spans="1:8" s="20" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="76"/>
       <c r="D1" s="76"/>
     </row>
     <row r="2" spans="1:8" s="20" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>230</v>
-      </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
+      <c r="A2" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -41549,19 +41473,19 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B7" s="75"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -41572,7 +41496,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -41583,7 +41507,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -41594,7 +41518,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -41604,7 +41528,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C12" s="75"/>
       <c r="D12" s="74"/>
@@ -41617,25 +41541,25 @@
     </row>
     <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="B14" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D14" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G14" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H14" s="76" t="s">
         <v>4</v>
@@ -41643,19 +41567,19 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B15" s="75"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B16" s="75"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B17" s="75"/>
       <c r="C17" s="75"/>
@@ -41666,7 +41590,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -41677,7 +41601,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -41688,7 +41612,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -41698,7 +41622,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C21" s="75"/>
       <c r="D21" s="74"/>
@@ -41708,25 +41632,25 @@
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H23" s="76" t="s">
         <v>4</v>
@@ -41734,19 +41658,19 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B24" s="75"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B25" s="75"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -41757,25 +41681,25 @@
     </row>
     <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B28" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C28" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D28" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F28" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G28" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H28" s="76" t="s">
         <v>4</v>
@@ -41783,19 +41707,19 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B30" s="75"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B31" s="75"/>
       <c r="C31" s="75"/>
@@ -41806,30 +41730,30 @@
     </row>
     <row r="33" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="10" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B34" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C34" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D34" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F34" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G34" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H34" s="76" t="s">
         <v>4</v>
@@ -41837,23 +41761,23 @@
     </row>
     <row r="35" spans="1:8" ht="128" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B35" s="105" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B36" s="106" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -41864,25 +41788,25 @@
     </row>
     <row r="39" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H39" s="76" t="s">
         <v>4</v>
@@ -41890,21 +41814,21 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B40" s="106"/>
     </row>
     <row r="41" spans="1:8" ht="317" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B41" s="106" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -41915,25 +41839,25 @@
     </row>
     <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B44" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C44" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D44" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E44" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F44" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G44" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H44" s="76" t="s">
         <v>4</v>
@@ -41941,19 +41865,19 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B45" s="75"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B46" s="75"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B47" s="75"/>
       <c r="C47" s="75"/>
@@ -41964,25 +41888,25 @@
     </row>
     <row r="49" spans="1:16384" s="101" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B49" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C49" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D49" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E49" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F49" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G49" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H49" s="76" t="s">
         <v>4</v>
@@ -58366,19 +58290,19 @@
     </row>
     <row r="50" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B50" s="75"/>
     </row>
     <row r="51" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B51" s="75"/>
     </row>
     <row r="52" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -58390,25 +58314,25 @@
     <row r="53" spans="1:16384" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="54" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="B54" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C54" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D54" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E54" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F54" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G54" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H54" s="76" t="s">
         <v>4</v>
@@ -58416,19 +58340,19 @@
     </row>
     <row r="55" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B55" s="75"/>
     </row>
     <row r="56" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B56" s="75"/>
     </row>
     <row r="57" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="B57" s="75"/>
       <c r="C57" s="75"/>
@@ -58439,30 +58363,30 @@
     </row>
     <row r="59" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:16384" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="B60" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D60" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E60" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F60" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G60" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H60" s="76" t="s">
         <v>4</v>
@@ -58470,19 +58394,19 @@
     </row>
     <row r="61" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B61" s="75"/>
     </row>
     <row r="62" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B62" s="75"/>
     </row>
     <row r="63" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B63" s="75"/>
       <c r="C63" s="75"/>
@@ -58493,7 +58417,7 @@
     </row>
     <row r="64" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B64" s="75"/>
       <c r="C64" s="75"/>
@@ -58504,13 +58428,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="B65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -58521,25 +58445,25 @@
     </row>
     <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B68" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C68" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D68" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E68" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F68" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G68" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H68" s="76" t="s">
         <v>4</v>
@@ -58547,19 +58471,19 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B69" s="75"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B70" s="75"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B71" s="75"/>
       <c r="C71" s="75"/>
@@ -58570,25 +58494,25 @@
     </row>
     <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="B73" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C73" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D73" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E73" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F73" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G73" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H73" s="76" t="s">
         <v>4</v>
@@ -58596,19 +58520,19 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B74" s="75"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B75" s="75"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -58619,30 +58543,30 @@
     </row>
     <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B79" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C79" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D79" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E79" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F79" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G79" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H79" s="76" t="s">
         <v>4</v>
@@ -58650,19 +58574,19 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B80" s="75"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B81" s="75"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B82" s="75"/>
       <c r="C82" s="75"/>
@@ -58674,30 +58598,30 @@
     <row r="83" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="10" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B85" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C85" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D85" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E85" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F85" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G85" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H85" s="76" t="s">
         <v>4</v>
@@ -58705,23 +58629,23 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>237</v>
-      </c>
-      <c r="B86" s="110" t="s">
-        <v>269</v>
+        <v>229</v>
+      </c>
+      <c r="B86" s="109" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="216" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B87" s="106" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B88" s="75"/>
       <c r="C88" s="75"/>
@@ -58732,25 +58656,25 @@
     </row>
     <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B90" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C90" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D90" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E90" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F90" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G90" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H90" s="76" t="s">
         <v>4</v>
@@ -58758,25 +58682,25 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="B91" s="74"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B92" s="75"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B93" s="75"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B94" s="75"/>
       <c r="C94" s="75"/>
@@ -58787,25 +58711,25 @@
     </row>
     <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B96" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C96" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D96" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E96" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F96" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G96" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H96" s="76" t="s">
         <v>4</v>
@@ -58813,19 +58737,19 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="B97" s="75"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B98" s="75"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="B99" s="75"/>
       <c r="C99" s="75"/>
@@ -58865,7 +58789,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -58873,38 +58797,38 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B5" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C5" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D5" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H5" s="76" t="s">
         <v>4</v>
@@ -58912,14 +58836,14 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111">
+        <v>271</v>
+      </c>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110">
         <v>562.35729300000003</v>
       </c>
       <c r="D6" s="74" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E6" s="74"/>
       <c r="F6" s="75"/>
@@ -58927,7 +58851,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -58938,7 +58862,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -58949,7 +58873,7 @@
     </row>
     <row r="9" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="100" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -58960,7 +58884,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -58971,7 +58895,7 @@
     </row>
     <row r="11" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="100" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -58982,7 +58906,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -58993,7 +58917,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -59004,7 +58928,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -59015,7 +58939,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -59026,7 +58950,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -59037,13 +58961,13 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C17" s="75"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -59054,7 +58978,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
@@ -59065,37 +58989,37 @@
     </row>
     <row r="20" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="100" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B21" s="75"/>
     </row>
     <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="73" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B23" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C23" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D23" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F23" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G23" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H23" s="76" t="s">
         <v>4</v>
@@ -59103,7 +59027,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="101" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -59114,7 +59038,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="B25" s="75"/>
       <c r="C25" s="75"/>
@@ -59125,7 +59049,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="101" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -59136,7 +59060,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -59147,7 +59071,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -59158,7 +59082,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -59169,18 +59093,18 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B30" s="75"/>
     </row>
     <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -59191,7 +59115,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -59202,7 +59126,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -59213,7 +59137,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -59224,7 +59148,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -59235,7 +59159,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -59246,31 +59170,31 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B39" s="75"/>
     </row>
     <row r="41" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="73" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B41" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C41" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D41" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E41" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F41" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G41" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H41" s="76" t="s">
         <v>4</v>
@@ -59278,7 +59202,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="20" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -59289,7 +59213,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="20" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
@@ -59300,7 +59224,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="20" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B44" s="75"/>
       <c r="C44" s="75"/>
@@ -59311,7 +59235,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B45" s="75"/>
       <c r="C45" s="75"/>
@@ -59322,7 +59246,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="20" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B46" s="75"/>
       <c r="C46" s="75"/>
@@ -59333,7 +59257,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B47" s="75"/>
     </row>
@@ -59342,30 +59266,30 @@
     </row>
     <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="73" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B50" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D50" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E50" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F50" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G50" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H50" s="76" t="s">
         <v>4</v>
@@ -59373,13 +59297,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B51" s="75"/>
     </row>
     <row r="52" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B52" s="75"/>
       <c r="C52" s="75"/>
@@ -59390,7 +59314,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B53" s="75"/>
       <c r="C53" s="75"/>
@@ -59401,25 +59325,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="12" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B55" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C55" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D55" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E55" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F55" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G55" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H55" s="76" t="s">
         <v>4</v>
@@ -59427,19 +59351,19 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="101" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B56" s="75"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B57" s="75"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B58" s="75"/>
       <c r="C58" s="75"/>
@@ -59450,7 +59374,7 @@
     </row>
     <row r="59" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B59" s="75"/>
       <c r="C59" s="75"/>
@@ -59461,37 +59385,37 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="101" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B60" s="75"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B61" s="75"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="12" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="B63" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C63" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D63" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E63" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F63" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G63" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H63" s="76" t="s">
         <v>4</v>
@@ -59499,19 +59423,19 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="101" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="B64" s="75"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="101" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="B65" s="75"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="101" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -59522,7 +59446,7 @@
     </row>
     <row r="67" spans="1:8" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="100" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="B67" s="75"/>
       <c r="C67" s="75"/>
@@ -59533,37 +59457,37 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="101" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="B68" s="75"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="101" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B69" s="75"/>
     </row>
     <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="73" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="B71" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C71" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D71" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E71" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F71" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G71" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H71" s="76" t="s">
         <v>4</v>
@@ -59571,13 +59495,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="101" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="B72" s="74"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="101" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B73" s="75"/>
       <c r="C73" s="75"/>
@@ -59588,7 +59512,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="101" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B74" s="75"/>
       <c r="C74" s="75"/>
@@ -59599,7 +59523,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="101" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B75" s="75"/>
       <c r="C75" s="75"/>
@@ -59610,7 +59534,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="101" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B76" s="75"/>
       <c r="C76" s="75"/>
@@ -59621,25 +59545,25 @@
     </row>
     <row r="78" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="73" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B78" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C78" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D78" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E78" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F78" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G78" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H78" s="76" t="s">
         <v>4</v>
@@ -59647,7 +59571,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="101" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B79" s="75"/>
       <c r="C79" s="101"/>
@@ -59658,7 +59582,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="101" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B80" s="75"/>
       <c r="C80" s="101"/>
@@ -59669,7 +59593,7 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="101" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="B81" s="75"/>
       <c r="C81" s="75"/>
@@ -59706,7 +59630,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -59714,55 +59638,55 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="73" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B6" s="75"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="B8" s="77"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B9" s="77"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="B11" s="77"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B13" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C13" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D13" s="76" t="s">
         <v>53</v>
@@ -59773,7 +59697,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -59781,7 +59705,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -59789,7 +59713,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -59800,7 +59724,7 @@
         <v>51</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D18" s="76" t="s">
         <v>4</v>
@@ -59808,51 +59732,51 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="39" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
     </row>
     <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="73" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="12" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="B26" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D26" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F26" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G26" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H26" s="76" t="s">
         <v>4</v>
@@ -59860,7 +59784,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
@@ -59871,7 +59795,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="101" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C28" s="75"/>
       <c r="D28" s="74"/>
@@ -59881,7 +59805,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -59892,25 +59816,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B31" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C31" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D31" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F31" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G31" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H31" s="76" t="s">
         <v>4</v>
@@ -59918,13 +59842,13 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="101" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="B32" s="75"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="101" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B33" s="75"/>
       <c r="C33" s="75"/>
@@ -59935,7 +59859,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="101" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -59946,7 +59870,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="101" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -59957,7 +59881,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="101" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C36" s="75"/>
       <c r="D36" s="74"/>
@@ -59967,7 +59891,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="101" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="B37" s="75"/>
       <c r="C37" s="75"/>
@@ -59978,25 +59902,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="B39" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C39" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D39" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E39" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F39" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G39" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H39" s="76" t="s">
         <v>4</v>
@@ -60004,7 +59928,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="101" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
@@ -60015,7 +59939,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="101" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C41" s="75"/>
       <c r="D41" s="74"/>
@@ -60025,7 +59949,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="101" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
@@ -60063,7 +59987,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -60071,27 +59995,27 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C4" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D4" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F4" s="76" t="s">
         <v>4</v>
@@ -60099,7 +60023,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="101" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B5" s="75"/>
       <c r="C5" s="75"/>
@@ -60108,7 +60032,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="101" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B6" s="75"/>
       <c r="C6" s="75"/>
@@ -60117,7 +60041,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="101" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="B7" s="75"/>
       <c r="C7" s="75"/>
@@ -60126,7 +60050,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="101" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="B8" s="75"/>
       <c r="C8" s="75"/>
@@ -60135,7 +60059,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="101" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B9" s="75"/>
       <c r="C9" s="75"/>
@@ -60144,7 +60068,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="101" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="B10" s="75"/>
       <c r="C10" s="75"/>
@@ -60153,7 +60077,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="101" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B11" s="75"/>
       <c r="C11" s="75"/>
@@ -60162,7 +60086,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
@@ -60171,7 +60095,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="11"/>
@@ -60180,19 +60104,19 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="68" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C15" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D15" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F15" s="76" t="s">
         <v>4</v>
@@ -60210,7 +60134,7 @@
     </row>
     <row r="17" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="100" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="B17" s="74"/>
       <c r="C17" s="66"/>
@@ -60220,31 +60144,31 @@
     </row>
     <row r="18" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="100" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
       <c r="D18" s="77"/>
       <c r="E18" s="75"/>
       <c r="F18" s="101" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="101" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="100" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="B19" s="75"/>
       <c r="C19" s="75"/>
       <c r="D19" s="75"/>
       <c r="E19" s="75"/>
       <c r="F19" s="101" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="101" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -60254,7 +60178,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="101" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B21" s="75"/>
       <c r="C21" s="75"/>
@@ -60264,7 +60188,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="101" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -60282,16 +60206,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B24" s="76" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C24" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D24" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="F24" s="76" t="s">
         <v>4</v>
@@ -60299,16 +60223,16 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="101" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B25" s="74" t="s">
-        <v>377</v>
-      </c>
-      <c r="C25" s="111">
+        <v>369</v>
+      </c>
+      <c r="C25" s="110">
         <v>347.970167</v>
       </c>
       <c r="D25" s="75" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="E25" s="75"/>
     </row>
@@ -60317,7 +60241,7 @@
         <v>51</v>
       </c>
       <c r="C26" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D26" s="76" t="s">
         <v>4</v>
@@ -60325,14 +60249,14 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="101" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B27" s="75"/>
       <c r="C27" s="75"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B28" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C28" s="76" t="s">
         <v>53</v>
@@ -60344,7 +60268,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="101" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="B29" s="75"/>
       <c r="C29" s="75"/>
@@ -60352,7 +60276,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="101" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -60384,7 +60308,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B1" s="7"/>
       <c r="C1" s="76"/>
@@ -60392,25 +60316,25 @@
       <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:8" ht="61.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="131" t="s">
-        <v>276</v>
-      </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
+      <c r="A2" s="130" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
     </row>
     <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B5" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="73" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="B6" s="75"/>
     </row>
@@ -60422,19 +60346,19 @@
         <v>51</v>
       </c>
       <c r="C8" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D8" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F8" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H8" s="76" t="s">
         <v>4</v>
@@ -60442,31 +60366,31 @@
     </row>
     <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="73" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="B9" s="75"/>
     </row>
     <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="73" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="B11" s="76" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="76" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D11" s="76" t="s">
         <v>53</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="F11" s="76" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="H11" s="76" t="s">
         <v>4</v>
@@ -60474,14 +60398,14 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="101" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="B12" s="75"/>
       <c r="C12" s="75"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="101" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="75"/>
@@ -60492,7 +60416,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="101" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="75"/>
@@ -60503,7 +60427,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="101" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="B15" s="75"/>
       <c r="C15" s="75"/>
@@ -60514,7 +60438,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="101" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="B16" s="75"/>
       <c r="C16" s="75"/>
@@ -60525,7 +60449,7 @@
     </row>
     <row r="18" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="73" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="B18" s="75"/>
       <c r="C18" s="75"/>
@@ -60536,7 +60460,7 @@
     </row>
     <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="73" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="B20" s="75"/>
       <c r="C20" s="75"/>
@@ -60547,7 +60471,7 @@
     </row>
     <row r="22" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="73" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B22" s="75"/>
       <c r="C22" s="75"/>
@@ -60558,7 +60482,7 @@
     </row>
     <row r="24" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="73" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
@@ -60569,7 +60493,7 @@
     </row>
     <row r="26" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="73" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B26" s="75"/>
       <c r="C26" s="75"/>
@@ -60580,7 +60504,7 @@
     </row>
     <row r="28" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="73" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B28" s="75"/>
       <c r="C28" s="75"/>
@@ -60594,7 +60518,7 @@
     </row>
     <row r="30" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="73" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B30" s="75"/>
       <c r="C30" s="75"/>
@@ -60608,7 +60532,7 @@
     </row>
     <row r="32" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="73" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B32" s="75"/>
       <c r="C32" s="75"/>
@@ -60622,7 +60546,7 @@
     </row>
     <row r="34" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="73" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B34" s="75"/>
       <c r="C34" s="75"/>
@@ -60636,7 +60560,7 @@
     </row>
     <row r="36" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="73" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B36" s="75"/>
       <c r="C36" s="75"/>
@@ -60650,7 +60574,7 @@
     </row>
     <row r="38" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="73" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B38" s="75"/>
       <c r="C38" s="75"/>
@@ -60664,7 +60588,7 @@
     </row>
     <row r="40" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="73" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B40" s="75"/>
       <c r="C40" s="75"/>
